--- a/output/StructureDefinition-ncdth-media.xlsx
+++ b/output/StructureDefinition-ncdth-media.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$33</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand Media Profile</t>
+    <t>NCD TH Media Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -727,8 +730,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>When Media was collected</t>
@@ -737,6 +740,13 @@
     <t>The date and time(s) at which the media was collected.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -744,6 +754,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>createdDateTime</t>
   </si>
   <si>
     <t>Media.issued</t>
@@ -1123,6 +1136,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1299,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1309,7 +1337,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.21484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.87109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
@@ -1480,7 +1508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1598,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1718,7 +1746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1836,7 +1864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -1956,7 +1984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2076,7 +2104,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2196,7 +2224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2316,7 +2344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2436,7 +2464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2558,7 +2586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2678,7 +2706,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -2798,7 +2826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -2920,7 +2948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3176,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3278,7 +3306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>202</v>
       </c>
@@ -3412,7 +3440,7 @@
         <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3530,7 +3558,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3636,7 +3664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>226</v>
       </c>
@@ -3706,16 +3734,14 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>226</v>
@@ -3733,13 +3759,13 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3756,11 +3782,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3770,7 +3798,7 @@
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3779,17 +3807,15 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3838,7 +3864,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -3853,19 +3879,19 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -3874,9 +3900,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3899,15 +3925,17 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3956,7 +3984,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -3971,19 +3999,19 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -3994,7 +4022,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4005,10 +4033,10 @@
         <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4017,17 +4045,15 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4052,13 +4078,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4076,13 +4102,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4091,16 +4117,16 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4112,9 +4138,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4125,7 +4151,7 @@
         <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4140,13 +4166,13 @@
         <v>183</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4175,10 +4201,10 @@
         <v>195</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4196,13 +4222,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4211,13 +4237,13 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4226,15 +4252,15 @@
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4257,15 +4283,17 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4290,13 +4318,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4314,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4332,27 +4360,27 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4375,17 +4403,15 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4434,7 +4460,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -4452,27 +4478,27 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4495,15 +4521,17 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4552,7 +4580,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -4570,27 +4598,27 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4613,13 +4641,13 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4670,7 +4698,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -4688,27 +4716,27 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4731,17 +4759,15 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4790,7 +4816,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -4808,13 +4834,13 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -4826,9 +4852,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4851,16 +4877,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4910,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
@@ -4928,13 +4954,13 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -4946,9 +4972,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4956,7 +4982,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -4971,16 +4997,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5030,10 +5056,10 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5048,13 +5074,13 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5068,7 +5094,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5076,31 +5102,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5150,13 +5176,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5165,28 +5191,166 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN32" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AO32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP32" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP33">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-media.xlsx
+++ b/output/StructureDefinition-ncdth-media.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH Media Profile</t>
+    <t>Media (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ Media resource</t>
+    <t>ใช้บันทึกรูปประกอบ ในที่นี้เช่น แผนผังครอบครัว</t>
   </si>
   <si>
     <t>Purpose</t>
